--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Kartkówka 1</t>
-  </si>
-  <si>
-    <t>Projekt 1 Ocena</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -129,9 +126,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:L15" totalsRowShown="0">
-  <autoFilter ref="A1:L15"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K15" totalsRowShown="0">
+  <autoFilter ref="A1:K15"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="Nr indeksu"/>
     <tableColumn id="4" name="Lista 1"/>
     <tableColumn id="12" name="Kartkówka 1T"/>
@@ -145,7 +142,6 @@
     <tableColumn id="5" name="Kartkówka 1" dataDxfId="0">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Projekt 1 Ocena"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,7 +457,7 @@
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,37 +465,34 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>152180</v>
       </c>
@@ -508,7 +501,7 @@
         <v>11.5</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -526,11 +519,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>3.5</v>
       </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>152181</v>
       </c>
@@ -539,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -554,11 +544,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4</v>
       </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>152189</v>
       </c>
@@ -567,7 +554,7 @@
         <v>7.25</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -582,11 +569,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>3.5</v>
       </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>152192</v>
       </c>
@@ -595,7 +579,7 @@
         <v>5.5</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -613,11 +597,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>3.5</v>
       </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>152193</v>
       </c>
@@ -626,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -641,11 +622,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4</v>
       </c>
-      <c r="L6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>152260</v>
       </c>
@@ -654,7 +632,7 @@
         <v>6.5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>0.5</v>
@@ -669,11 +647,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>152197</v>
       </c>
@@ -682,7 +657,7 @@
         <v>5.5</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -703,19 +678,16 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4.5</v>
       </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>152200</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>0.5</v>
@@ -739,11 +711,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>6.5</v>
       </c>
-      <c r="L9">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>152203</v>
       </c>
@@ -751,7 +720,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>0.5</v>
@@ -772,11 +741,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4.5</v>
       </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>152204</v>
       </c>
@@ -784,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>0.5</v>
@@ -793,11 +759,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>0.5</v>
       </c>
-      <c r="L11">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>152205</v>
       </c>
@@ -805,11 +768,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>152206</v>
       </c>
@@ -818,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>152208</v>
       </c>
@@ -826,7 +786,7 @@
         <v>10.5</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -847,11 +807,8 @@
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4.25</v>
       </c>
-      <c r="L14">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>152210</v>
       </c>
@@ -859,7 +816,7 @@
         <v>10.5</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>0.5</v>
@@ -878,9 +835,6 @@
       </c>
       <c r="K15">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
-        <v>4.5</v>
-      </c>
-      <c r="L15">
         <v>4.5</v>
       </c>
     </row>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Kartkówka 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Kartkówka 1.1</t>
@@ -447,7 +444,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -501,7 +498,7 @@
         <v>11.5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -529,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -554,7 +551,7 @@
         <v>7.25</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -579,7 +576,7 @@
         <v>5.5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>0.5</v>
@@ -607,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -632,7 +629,7 @@
         <v>6.5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>0.5</v>
@@ -657,7 +654,7 @@
         <v>5.5</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -683,11 +680,11 @@
       <c r="A9">
         <v>152200</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9">
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>0.5</v>
@@ -720,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>0.5</v>
@@ -750,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>0.5</v>
@@ -786,7 +783,7 @@
         <v>10.5</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -816,7 +813,7 @@
         <v>10.5</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15">
         <v>0.5</v>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Pkt do tej pory</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Propozycja</t>
   </si>
 </sst>
 </file>
@@ -105,7 +114,13 @@
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -136,8 +151,26 @@
     <tableColumn id="3" name="Kartkówka 1.5"/>
     <tableColumn id="2" name="Kartkówka 1.6"/>
     <tableColumn id="11" name="Kartkówka Bonus"/>
-    <tableColumn id="5" name="Kartkówka 1" dataDxfId="0">
+    <tableColumn id="5" name="Kartkówka 1" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A17:E31" totalsRowShown="0">
+  <autoFilter ref="A17:E31"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Nr indeksu"/>
+    <tableColumn id="4" name="Lista 1"/>
+    <tableColumn id="12" name="Kartkówka 1"/>
+    <tableColumn id="10" name="%" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Propozycja" dataDxfId="1">
+      <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -441,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -835,10 +868,305 @@
         <v>4.5</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>152180</v>
+      </c>
+      <c r="B18">
+        <f>12-0.5</f>
+        <v>11.5</v>
+      </c>
+      <c r="C18">
+        <v>3.5</v>
+      </c>
+      <c r="D18">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.75</v>
+      </c>
+      <c r="E18">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>152181</v>
+      </c>
+      <c r="B19">
+        <f>12-1</f>
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.75</v>
+      </c>
+      <c r="E19">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>152189</v>
+      </c>
+      <c r="B20">
+        <f>12-4.75</f>
+        <v>7.25</v>
+      </c>
+      <c r="C20">
+        <v>3.5</v>
+      </c>
+      <c r="D20">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.53749999999999998</v>
+      </c>
+      <c r="E20">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>152192</v>
+      </c>
+      <c r="B21">
+        <f>12-6.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="C21">
+        <v>3.5</v>
+      </c>
+      <c r="D21">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.45</v>
+      </c>
+      <c r="E21">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>152193</v>
+      </c>
+      <c r="B22">
+        <v>6.01</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="E22">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>152260</v>
+      </c>
+      <c r="B23">
+        <f>12-5.5</f>
+        <v>6.5</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E23">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>152197</v>
+      </c>
+      <c r="B24">
+        <f>12-6.5</f>
+        <v>5.5</v>
+      </c>
+      <c r="C24">
+        <v>4.5</v>
+      </c>
+      <c r="D24">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>152200</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>6.5</v>
+      </c>
+      <c r="D25">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E25">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>152203</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>4.5</v>
+      </c>
+      <c r="D26">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E26">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>152204</v>
+      </c>
+      <c r="B27">
+        <v>4.01</v>
+      </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.22549999999999998</v>
+      </c>
+      <c r="E27">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>152205</v>
+      </c>
+      <c r="B28">
+        <v>0.01</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E28">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>152206</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>152208</v>
+      </c>
+      <c r="B30">
+        <v>10.5</v>
+      </c>
+      <c r="C30">
+        <v>4.25</v>
+      </c>
+      <c r="D30">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="E30">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>152210</v>
+      </c>
+      <c r="B31">
+        <v>10.5</v>
+      </c>
+      <c r="C31">
+        <v>4.5</v>
+      </c>
+      <c r="D31">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
+        <v>0.75</v>
+      </c>
+      <c r="E31">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -166,10 +166,10 @@
     <tableColumn id="1" name="Nr indeksu"/>
     <tableColumn id="4" name="Lista 1"/>
     <tableColumn id="12" name="Kartkówka 1"/>
-    <tableColumn id="10" name="%" dataDxfId="0">
+    <tableColumn id="10" name="%" dataDxfId="1">
       <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Propozycja" dataDxfId="1">
+    <tableColumn id="2" name="Propozycja" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,9 +794,36 @@
       <c r="A12">
         <v>152205</v>
       </c>
+      <c r="B12">
+        <v>0.01</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
       <c r="K12">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1089,11 +1116,11 @@
         <v>0.01</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>5.0000000000000001E-4</v>
+        <v>0.30049999999999999</v>
       </c>
       <c r="E28">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,8 +633,7 @@
         <v>152193</v>
       </c>
       <c r="B6">
-        <f>12-2</f>
-        <v>10</v>
+        <v>6.01</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -476,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +794,7 @@
         <v>152205</v>
       </c>
       <c r="B12">
-        <v>0.01</v>
+        <v>10.5</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -1112,18 +1112,18 @@
         <v>152205</v>
       </c>
       <c r="B28">
-        <v>0.01</v>
+        <v>10.5</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
       <c r="D28">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.30049999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E28">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\BazyDanychI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{78DCF69A-C896-4B17-AA36-50C50DAD2B64}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -72,13 +73,34 @@
   </si>
   <si>
     <t>Propozycja</t>
+  </si>
+  <si>
+    <t>Lista 2</t>
+  </si>
+  <si>
+    <t>Kartkówka 2T</t>
+  </si>
+  <si>
+    <t>Kartkówka 2.1</t>
+  </si>
+  <si>
+    <t>Kartkówka 2.2</t>
+  </si>
+  <si>
+    <t>Kartkówka 2.3</t>
+  </si>
+  <si>
+    <t>Kartkówka 2</t>
+  </si>
+  <si>
+    <t>Lab 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,13 +109,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,16 +140,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutralny" xfId="1" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -138,20 +179,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:K15" totalsRowShown="0">
-  <autoFilter ref="A1:K15"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Nr indeksu"/>
-    <tableColumn id="4" name="Lista 1"/>
-    <tableColumn id="12" name="Kartkówka 1T"/>
-    <tableColumn id="10" name="Kartkówka 1.1"/>
-    <tableColumn id="9" name="Kartkówka 1.2"/>
-    <tableColumn id="8" name="Kartkówka 1.3"/>
-    <tableColumn id="6" name="Kartkówka 1.4"/>
-    <tableColumn id="3" name="Kartkówka 1.5"/>
-    <tableColumn id="2" name="Kartkówka 1.6"/>
-    <tableColumn id="11" name="Kartkówka Bonus"/>
-    <tableColumn id="5" name="Kartkówka 1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:R15" totalsRowShown="0">
+  <autoFilter ref="A1:R15" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nr indeksu"/>
+    <tableColumn id="16" xr3:uid="{FA195D4E-0AD7-4200-8E3A-DB90286B8860}" name="Lista 2"/>
+    <tableColumn id="15" xr3:uid="{D3EBC6A2-FA46-40CB-905E-E68F0D790D41}" name="Kartkówka 2T"/>
+    <tableColumn id="14" xr3:uid="{C6410DE6-FD45-4F26-92A1-D1ACF8366783}" name="Kartkówka 2.1"/>
+    <tableColumn id="17" xr3:uid="{5867948B-AB23-48FE-8BBD-FDC14D0730DB}" name="Kartkówka 2.2"/>
+    <tableColumn id="13" xr3:uid="{FE7681BF-04F7-4F96-8140-9A2211D752CB}" name="Kartkówka 2.3"/>
+    <tableColumn id="18" xr3:uid="{237AC418-5C8F-4BAC-98AB-2A8BA1745CEC}" name="Kartkówka 2" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{0B480699-179B-4FD4-B82F-E16F861DED75}" name="Lab 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Lista 1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Kartkówka 1T"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Kartkówka 1.1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Kartkówka 1.2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Kartkówka 1.3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Kartkówka 1.4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Kartkówka 1.5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Kartkówka 1.6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Kartkówka Bonus"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Kartkówka 1" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -160,16 +210,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A17:E31" totalsRowShown="0">
-  <autoFilter ref="A17:E31"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Nr indeksu"/>
-    <tableColumn id="4" name="Lista 1"/>
-    <tableColumn id="12" name="Kartkówka 1"/>
-    <tableColumn id="10" name="%" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:H31" totalsRowShown="0">
+  <autoFilter ref="A17:H31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nr indeksu"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Lista 1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Kartkówka 1"/>
+    <tableColumn id="5" xr3:uid="{2FCEF85C-1287-4108-9852-35C58A18D4CF}" name="Lista 2"/>
+    <tableColumn id="3" xr3:uid="{9772D186-2346-45B5-8D95-CF09206DAD57}" name="Kartkówka 2"/>
+    <tableColumn id="6" xr3:uid="{61AA02F2-3FCD-4EFC-8D15-E648F15660B1}" name="Lab 2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Propozycja" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="3">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -473,242 +526,415 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" customWidth="1"/>
+    <col min="2" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>152180</v>
       </c>
       <c r="B2">
+        <v>11.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <f>12-0.5</f>
         <v>11.5</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
         <v>0.5</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="R2">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>152181</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>2 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <f>12-1</f>
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="R3">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>152189</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <f>12-4.75</f>
         <v>7.25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="K4">
         <v>0.5</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="R4">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>152192</v>
       </c>
       <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2.5</v>
+      </c>
+      <c r="F5">
+        <v>1.5</v>
+      </c>
+      <c r="G5">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
         <f>12-6.5</f>
         <v>5.5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="K5">
         <v>0.5</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>152193</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>5.5</v>
+      </c>
+      <c r="I6">
         <v>6.01</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
+      <c r="J6" t="s">
+        <v>12</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="R6">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>152260</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+      <c r="F7">
+        <v>2.25</v>
+      </c>
+      <c r="G7">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>5.75</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
         <f>12-5.5</f>
         <v>6.5</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
         <v>0.5</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="O7">
         <v>1.5</v>
       </c>
-      <c r="K7">
+      <c r="R7">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>152197</v>
       </c>
       <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2.25</v>
+      </c>
+      <c r="G8">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>6.25</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
         <f>12-6.5</f>
         <v>5.5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="G8">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>0.5</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="K8">
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="R8">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>152200</v>
       </c>
@@ -716,185 +942,336 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>6.5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
         <v>0.5</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="R9">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>152203</v>
       </c>
       <c r="B10">
+        <v>11.5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10">
         <v>0.5</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="R10">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>152204</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2.5</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>6.5</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11">
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
         <v>0.5</v>
       </c>
-      <c r="K11">
+      <c r="R11">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>152205</v>
       </c>
       <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>10.5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="J12" t="s">
         <v>11</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>152206</v>
       </c>
-      <c r="K13">
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+      <c r="F13">
+        <v>1.25</v>
+      </c>
+      <c r="G13">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>3.5</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="R13">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>152208</v>
       </c>
       <c r="B14">
+        <v>9.5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
         <v>10.5</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="J14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <v>0.25</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="K14">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="R14">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4.25</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>152210</v>
       </c>
       <c r="B15">
+        <v>9.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f>SUM(Tabela1[[#This Row],[Kartkówka 2.1]:[Kartkówka 2.3]])</f>
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
         <v>10.5</v>
       </c>
-      <c r="C15" t="s">
+      <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="K15">
         <v>0.5</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="K15">
+      <c r="P15">
+        <v>2</v>
+      </c>
+      <c r="R15">
         <f>SUM(Tabela1[[#This Row],[Kartkówka 1.1]:[Kartkówka Bonus]])</f>
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -905,13 +1282,22 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
+      <c r="H17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>152180</v>
       </c>
@@ -923,15 +1309,24 @@
         <v>3.5</v>
       </c>
       <c r="D18">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.75</v>
+        <v>11.5</v>
       </c>
       <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.8125</v>
+      </c>
+      <c r="H18">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>152181</v>
       </c>
@@ -943,15 +1338,24 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.75</v>
+        <v>9</v>
       </c>
       <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.8</v>
+      </c>
+      <c r="H19">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>152189</v>
       </c>
@@ -963,15 +1367,24 @@
         <v>3.5</v>
       </c>
       <c r="D20">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.53749999999999998</v>
+        <v>8</v>
       </c>
       <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.69374999999999998</v>
+      </c>
+      <c r="H20">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>152192</v>
       </c>
@@ -983,15 +1396,24 @@
         <v>3.5</v>
       </c>
       <c r="D21">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.45</v>
+        <v>8</v>
       </c>
       <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.625</v>
+      </c>
+      <c r="H21">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>152193</v>
       </c>
@@ -1002,15 +1424,21 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.50049999999999994</v>
+        <v>6</v>
       </c>
       <c r="E22">
+        <v>5.5</v>
+      </c>
+      <c r="G22">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.53774999999999995</v>
+      </c>
+      <c r="H22">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>152260</v>
       </c>
@@ -1022,15 +1450,24 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.47499999999999998</v>
+        <v>9</v>
       </c>
       <c r="E23">
+        <v>5.75</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.65625</v>
+      </c>
+      <c r="H23">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>152197</v>
       </c>
@@ -1042,15 +1479,24 @@
         <v>4.5</v>
       </c>
       <c r="D24">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.5</v>
+        <v>11</v>
       </c>
       <c r="E24">
+        <v>6.25</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.73124999999999996</v>
+      </c>
+      <c r="H24">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>152200</v>
       </c>
@@ -1061,15 +1507,24 @@
         <v>6.5</v>
       </c>
       <c r="D25">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.92500000000000004</v>
+        <v>12</v>
       </c>
       <c r="E25">
+        <v>6.5</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>1</v>
+      </c>
+      <c r="H25">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>152203</v>
       </c>
@@ -1080,15 +1535,24 @@
         <v>4.5</v>
       </c>
       <c r="D26">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.77500000000000002</v>
+        <v>11.5</v>
       </c>
       <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.875</v>
+      </c>
+      <c r="H26">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>152204</v>
       </c>
@@ -1099,15 +1563,24 @@
         <v>0.5</v>
       </c>
       <c r="D27">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.22549999999999998</v>
+        <v>10</v>
       </c>
       <c r="E27">
+        <v>6.5</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.55024999999999991</v>
+      </c>
+      <c r="H27">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>152205</v>
       </c>
@@ -1118,31 +1591,46 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.82499999999999996</v>
+        <v>10</v>
       </c>
       <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="H28">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>152206</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0</v>
-      </c>
       <c r="E29">
+        <v>3.5</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="H29">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>152208</v>
       </c>
@@ -1153,15 +1641,24 @@
         <v>4.25</v>
       </c>
       <c r="D30">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.73750000000000004</v>
+        <v>9.5</v>
       </c>
       <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="H30">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>152210</v>
       </c>
@@ -1172,12 +1669,21 @@
         <v>4.5</v>
       </c>
       <c r="D31">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 1]])/$B$33</f>
-        <v>0.75</v>
+        <v>9.5</v>
       </c>
       <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lab 2]])/$B$33</f>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="H31">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1185,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\BazyDanychI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0901997F-08D1-40DA-A6F2-024A5D5CF176}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9FF42A06-34AB-462E-B2A7-CC0570645C6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,10 +156,10 @@
     <tableColumn id="6" xr3:uid="{61AA02F2-3FCD-4EFC-8D15-E648F15660B1}" name="Lab 2"/>
     <tableColumn id="7" xr3:uid="{FE6791A3-CBDC-45D5-AE17-43060192EB64}" name="Lista 3"/>
     <tableColumn id="8" xr3:uid="{7586B4CC-4010-47ED-9B83-F392376FFF3B}" name="Kartkówka 3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="1">
       <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -838,14 +838,14 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="I23">
         <v>4.5</v>
       </c>
       <c r="J23">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.36666666666666664</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="K23">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\BazyDanychI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9FF42A06-34AB-462E-B2A7-CC0570645C6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F14CEEDE-85B2-4003-B2E7-4D17EF6BC829}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Kolumna18</t>
+  </si>
+  <si>
+    <t>Lista Spatial</t>
   </si>
 </sst>
 </file>
@@ -141,12 +144,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:K31" totalsRowShown="0">
-  <autoFilter ref="A17:K31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A18:K31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:L31" totalsRowShown="0">
+  <autoFilter ref="A17:L31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A18:L31">
     <sortCondition ref="A17:A31"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="22" xr3:uid="{560E68F0-BE8A-4178-9105-AC05CE4B55F2}" name="Kolumna1"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nr indeksu"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Lista 1"/>
@@ -156,10 +159,11 @@
     <tableColumn id="6" xr3:uid="{61AA02F2-3FCD-4EFC-8D15-E648F15660B1}" name="Lab 2"/>
     <tableColumn id="7" xr3:uid="{FE6791A3-CBDC-45D5-AE17-43060192EB64}" name="Lista 3"/>
     <tableColumn id="8" xr3:uid="{7586B4CC-4010-47ED-9B83-F392376FFF3B}" name="Kartkówka 3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{837CC051-FF37-4584-8D9C-56B5A91609DF}" name="Lista Spatial"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="1">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -464,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +601,7 @@
         <v>152203</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -626,13 +630,16 @@
         <v>9</v>
       </c>
       <c r="J17" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K17" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -661,15 +668,18 @@
         <v>7.5</v>
       </c>
       <c r="J18">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.875</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.85606060606060608</v>
+      </c>
+      <c r="L18">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -698,15 +708,18 @@
         <v>7.5</v>
       </c>
       <c r="J19">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.8666666666666667</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="L19">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -735,15 +748,18 @@
         <v>5.5</v>
       </c>
       <c r="J20">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.95833333333333337</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.93181818181818177</v>
+      </c>
+      <c r="L20">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -772,15 +788,18 @@
         <v>7</v>
       </c>
       <c r="J21">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.83750000000000002</v>
+        <v>4</v>
       </c>
       <c r="K21">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.82196969696969702</v>
+      </c>
+      <c r="L21">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -810,15 +829,18 @@
         <v>5</v>
       </c>
       <c r="J22">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.75</v>
+        <v>4</v>
       </c>
       <c r="K22">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.74242424242424243</v>
+      </c>
+      <c r="L22">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -844,15 +866,18 @@
         <v>4.5</v>
       </c>
       <c r="J23">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.39166666666666666</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.40151515151515149</v>
+      </c>
+      <c r="L23">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -881,15 +906,18 @@
         <v>6.5</v>
       </c>
       <c r="J24">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.5585</v>
+        <v>4</v>
       </c>
       <c r="K24">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.56833333333333336</v>
+      </c>
+      <c r="L24">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -919,15 +947,18 @@
         <v>5</v>
       </c>
       <c r="J25">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.68766666666666665</v>
+        <v>4</v>
       </c>
       <c r="K25">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.68575757575757568</v>
+      </c>
+      <c r="L25">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -957,15 +988,18 @@
         <v>3.5</v>
       </c>
       <c r="J26">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="K26">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="L26">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -995,15 +1029,18 @@
         <v>5</v>
       </c>
       <c r="J27">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.66266666666666663</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.64787878787878783</v>
+      </c>
+      <c r="L27">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -1033,15 +1070,18 @@
         <v>6</v>
       </c>
       <c r="J28">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.65433333333333332</v>
+        <v>3</v>
       </c>
       <c r="K28">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.64030303030303026</v>
+      </c>
+      <c r="L28">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -1067,15 +1107,18 @@
         <v>3</v>
       </c>
       <c r="J29">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.5585</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.56833333333333336</v>
+      </c>
+      <c r="L29">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -1104,15 +1147,18 @@
         <v>4</v>
       </c>
       <c r="J30">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.67500000000000004</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.64393939393939392</v>
+      </c>
+      <c r="L30">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -1141,10 +1187,13 @@
         <v>5.5</v>
       </c>
       <c r="J31">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 3]])/$B$33</f>
-        <v>0.875</v>
+        <v>4</v>
       </c>
       <c r="K31">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
+        <v>0.85606060606060608</v>
+      </c>
+      <c r="L31">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
@@ -1154,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\BazyDanychI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F14CEEDE-85B2-4003-B2E7-4D17EF6BC829}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83CFF5AC-0A9D-47ED-9F22-6556AFCCEB43}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Lista Spatial</t>
+  </si>
+  <si>
+    <t>Kartkówka 4</t>
   </si>
 </sst>
 </file>
@@ -144,12 +147,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:L31" totalsRowShown="0">
-  <autoFilter ref="A17:L31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A18:L31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:M31" totalsRowShown="0">
+  <autoFilter ref="A17:M31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A18:M31">
     <sortCondition ref="A17:A31"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="13">
     <tableColumn id="22" xr3:uid="{560E68F0-BE8A-4178-9105-AC05CE4B55F2}" name="Kolumna1"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nr indeksu"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Lista 1"/>
@@ -160,10 +163,11 @@
     <tableColumn id="7" xr3:uid="{FE6791A3-CBDC-45D5-AE17-43060192EB64}" name="Lista 3"/>
     <tableColumn id="8" xr3:uid="{7586B4CC-4010-47ED-9B83-F392376FFF3B}" name="Kartkówka 3"/>
     <tableColumn id="9" xr3:uid="{837CC051-FF37-4584-8D9C-56B5A91609DF}" name="Lista Spatial"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="0">
-      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{D518B442-009B-48FE-8317-D4AA7CFD1A11}" name="Kartkówka 4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="1">
+      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="0">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -468,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,7 +605,7 @@
         <v>152203</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -633,13 +637,16 @@
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -671,15 +678,18 @@
         <v>4</v>
       </c>
       <c r="K18">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.85606060606060608</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.81756756756756754</v>
+      </c>
+      <c r="M18">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -710,16 +720,16 @@
       <c r="J19">
         <v>4</v>
       </c>
-      <c r="K19">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.84848484848484851</v>
-      </c>
       <c r="L19">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="M19">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -751,15 +761,18 @@
         <v>4</v>
       </c>
       <c r="K20">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.93181818181818177</v>
+        <v>3.25</v>
       </c>
       <c r="L20">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.875</v>
+      </c>
+      <c r="M20">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -790,16 +803,16 @@
       <c r="J21">
         <v>4</v>
       </c>
-      <c r="K21">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.82196969696969702</v>
-      </c>
       <c r="L21">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.73310810810810811</v>
+      </c>
+      <c r="M21">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -832,15 +845,18 @@
         <v>4</v>
       </c>
       <c r="K22">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.74242424242424243</v>
+        <v>6.6</v>
       </c>
       <c r="L22">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.75135135135135134</v>
+      </c>
+      <c r="M22">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -869,15 +885,18 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.40151515151515149</v>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.39189189189189189</v>
+      </c>
+      <c r="M23">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -909,15 +928,18 @@
         <v>4</v>
       </c>
       <c r="K24">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.56833333333333336</v>
+        <v>3.5</v>
       </c>
       <c r="L24">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.55418918918918914</v>
+      </c>
+      <c r="M24">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -950,15 +972,18 @@
         <v>4</v>
       </c>
       <c r="K25">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.68575757575757568</v>
+        <v>4.5</v>
       </c>
       <c r="L25">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.67243243243243245</v>
+      </c>
+      <c r="M25">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -991,15 +1016,18 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.72727272727272729</v>
+        <v>5</v>
       </c>
       <c r="L26">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.71621621621621623</v>
+      </c>
+      <c r="M26">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1032,15 +1060,18 @@
         <v>3</v>
       </c>
       <c r="K27">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.64787878787878783</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L27">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.64405405405405403</v>
+      </c>
+      <c r="M27">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -1073,15 +1104,18 @@
         <v>3</v>
       </c>
       <c r="K28">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.64030303030303026</v>
+        <v>4.5</v>
       </c>
       <c r="L28">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.63189189189189188</v>
+      </c>
+      <c r="M28">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -1110,15 +1144,18 @@
         <v>4</v>
       </c>
       <c r="K29">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.56833333333333336</v>
+        <v>3.25</v>
       </c>
       <c r="L29">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.55081081081081074</v>
+      </c>
+      <c r="M29">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -1150,15 +1187,18 @@
         <v>2</v>
       </c>
       <c r="K30">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.64393939393939392</v>
+        <v>2.5</v>
       </c>
       <c r="L30">
-        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.60810810810810811</v>
+      </c>
+      <c r="M30">
+        <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -1190,10 +1230,13 @@
         <v>4</v>
       </c>
       <c r="K31">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista Spatial]])/$B$33</f>
-        <v>0.85606060606060608</v>
+        <v>5.75</v>
       </c>
       <c r="L31">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
+        <v>0.84121621621621623</v>
+      </c>
+      <c r="M31">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
@@ -1203,7 +1246,7 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\BazyDanychI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{83CFF5AC-0A9D-47ED-9F22-6556AFCCEB43}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7FB94F1-62D0-4870-9F79-E3BC1570768D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -70,13 +70,19 @@
   </si>
   <si>
     <t>Kartkówka 4</t>
+  </si>
+  <si>
+    <t>Lista 5</t>
+  </si>
+  <si>
+    <t>Ocena Końcowa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +91,26 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,16 +122,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutralny" xfId="1" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -147,12 +173,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:M31" totalsRowShown="0">
-  <autoFilter ref="A17:M31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A18:M31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A17:O31" totalsRowShown="0">
+  <autoFilter ref="A17:O31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A18:N31">
     <sortCondition ref="A17:A31"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="15">
     <tableColumn id="22" xr3:uid="{560E68F0-BE8A-4178-9105-AC05CE4B55F2}" name="Kolumna1"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Nr indeksu"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Lista 1"/>
@@ -164,12 +190,14 @@
     <tableColumn id="8" xr3:uid="{7586B4CC-4010-47ED-9B83-F392376FFF3B}" name="Kartkówka 3"/>
     <tableColumn id="9" xr3:uid="{837CC051-FF37-4584-8D9C-56B5A91609DF}" name="Lista Spatial"/>
     <tableColumn id="11" xr3:uid="{D518B442-009B-48FE-8317-D4AA7CFD1A11}" name="Kartkówka 4"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="1">
-      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{067DAC3E-FAD3-4FAB-975E-97023AD4E1EC}" name="Lista 5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="2">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="15" xr3:uid="{2E922340-63FF-4D39-AF60-B601448C8DB5}" name="Ocena Końcowa" dataDxfId="1" dataCellStyle="Neutralny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="I12" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +633,7 @@
         <v>152203</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -640,13 +668,19 @@
         <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -681,15 +715,21 @@
         <v>4</v>
       </c>
       <c r="L18">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.81756756756756754</v>
+        <v>6</v>
       </c>
       <c r="M18">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.85256410256410253</v>
+      </c>
+      <c r="N18">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -721,15 +761,19 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.7567567567567568</v>
+        <v>4</v>
       </c>
       <c r="M19">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="N19">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -764,15 +808,21 @@
         <v>3.25</v>
       </c>
       <c r="L20">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.875</v>
+        <v>6</v>
       </c>
       <c r="M20">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.90705128205128205</v>
+      </c>
+      <c r="N20">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+      <c r="O20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -804,15 +854,19 @@
         <v>4</v>
       </c>
       <c r="L21">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.73310810810810811</v>
+        <v>4</v>
       </c>
       <c r="M21">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.74679487179487181</v>
+      </c>
+      <c r="N21">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -848,15 +902,19 @@
         <v>6.6</v>
       </c>
       <c r="L22">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.75135135135135134</v>
+        <v>4.5</v>
       </c>
       <c r="M22">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.77051282051282055</v>
+      </c>
+      <c r="N22">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -888,15 +946,19 @@
         <v>2.5</v>
       </c>
       <c r="L23">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.39189189189189189</v>
+        <v>4</v>
       </c>
       <c r="M23">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="N23">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -930,16 +992,17 @@
       <c r="K24">
         <v>3.5</v>
       </c>
-      <c r="L24">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.55418918918918914</v>
-      </c>
       <c r="M24">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.52576923076923077</v>
+      </c>
+      <c r="N24">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -975,15 +1038,21 @@
         <v>4.5</v>
       </c>
       <c r="L25">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.67243243243243245</v>
+        <v>4.5</v>
       </c>
       <c r="M25">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.69564102564102559</v>
+      </c>
+      <c r="N25">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O25" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1019,15 +1088,21 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.71621621621621623</v>
+        <v>5</v>
       </c>
       <c r="M26">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.74358974358974361</v>
+      </c>
+      <c r="N26">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O26" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1063,15 +1138,21 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="L27">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.64405405405405403</v>
+        <v>4</v>
       </c>
       <c r="M27">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.66230769230769226</v>
+      </c>
+      <c r="N27">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O27" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -1107,15 +1188,19 @@
         <v>4.5</v>
       </c>
       <c r="L28">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.63189189189189188</v>
+        <v>3</v>
       </c>
       <c r="M28">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.63794871794871788</v>
+      </c>
+      <c r="N28">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -1147,15 +1232,21 @@
         <v>3.25</v>
       </c>
       <c r="L29">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.55081081081081074</v>
+        <v>5</v>
       </c>
       <c r="M29">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="N29">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -1190,15 +1281,21 @@
         <v>2.5</v>
       </c>
       <c r="L30">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.60810810810810811</v>
+        <v>3</v>
       </c>
       <c r="M30">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="N30">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -1233,12 +1330,18 @@
         <v>5.75</v>
       </c>
       <c r="L31">
-        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Kartkówka 4]])/$B$33</f>
-        <v>0.84121621621621623</v>
+        <v>5.5</v>
       </c>
       <c r="M31">
+        <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
+        <v>0.86858974358974361</v>
+      </c>
+      <c r="N31">
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>4</v>
+      </c>
+      <c r="O31" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Wyniki/Wyniki.xlsx
+++ b/Wyniki/Wyniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PRz\Documents\Politechnika Rzeszowska Studenci\2018 lato\BazyDanychI4\Wyniki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7FB94F1-62D0-4870-9F79-E3BC1570768D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FE50CC24-0396-4110-B4D5-CBBC3C1A0053}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="8748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Nr indeksu</t>
   </si>
@@ -76,13 +76,16 @@
   </si>
   <si>
     <t>Ocena Końcowa</t>
+  </si>
+  <si>
+    <t>Sprawozdanie!!!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +102,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +129,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -122,18 +151,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Dobry" xfId="2" builtinId="26"/>
     <cellStyle name="Neutralny" xfId="1" builtinId="28"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Zły" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -191,13 +227,13 @@
     <tableColumn id="9" xr3:uid="{837CC051-FF37-4584-8D9C-56B5A91609DF}" name="Lista Spatial"/>
     <tableColumn id="11" xr3:uid="{D518B442-009B-48FE-8317-D4AA7CFD1A11}" name="Kartkówka 4"/>
     <tableColumn id="13" xr3:uid="{067DAC3E-FAD3-4FAB-975E-97023AD4E1EC}" name="Lista 5"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="%" dataDxfId="2">
       <calculatedColumnFormula>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Propozycja" dataDxfId="1">
       <calculatedColumnFormula>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{2E922340-63FF-4D39-AF60-B601448C8DB5}" name="Ocena Końcowa" dataDxfId="1" dataCellStyle="Neutralny"/>
+    <tableColumn id="15" xr3:uid="{2E922340-63FF-4D39-AF60-B601448C8DB5}" name="Ocena Końcowa" dataDxfId="0" dataCellStyle="Neutralny"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -500,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I12" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +669,7 @@
         <v>152203</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -680,7 +716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -729,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -771,9 +807,11 @@
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O19" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -822,7 +860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -864,9 +902,11 @@
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -912,9 +952,11 @@
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3.5</v>
       </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O22" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>6</v>
       </c>
@@ -956,9 +998,11 @@
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O23" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -992,6 +1036,7 @@
       <c r="K24">
         <v>3.5</v>
       </c>
+      <c r="L24" s="4"/>
       <c r="M24">
         <f>SUM(Tabela13[[#This Row],[Lista 1]:[Lista 5]])/$B$33</f>
         <v>0.52576923076923077</v>
@@ -1000,9 +1045,14 @@
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>2</v>
       </c>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O24" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1052,7 +1102,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1102,7 +1152,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1152,7 +1202,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>11</v>
       </c>
@@ -1198,9 +1248,11 @@
         <f>IF(Tabela13[[#This Row],[%]]&lt;0.6, 2, IF(Tabela13[[#This Row],[%]]&lt;0.7, 3, IF(Tabela13[[#This Row],[%]]&lt;0.8, 3.5, IF(Tabela13[[#This Row],[%]]&lt;0.9, 4, IF(Tabela13[[#This Row],[%]]&lt;0.95, 4.5, 5)))))</f>
         <v>3</v>
       </c>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O28" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -1246,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>13</v>
       </c>
@@ -1295,7 +1347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
